--- a/UpdateTradingUniverseInstruction.xlsx
+++ b/UpdateTradingUniverseInstruction.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
